--- a/uploads/RCV_Compras_Procesado.xlsx
+++ b/uploads/RCV_Compras_Procesado.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:W1"/>
@@ -523,307 +523,562 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ERROR: factura-7790811-5409238.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>102014920</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>BANCO BISA S.A.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>2D73EBD84A967B6AF0A1274</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>5409328</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1113891301-174</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1113893013</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1113891301</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RUTH LOURDES CLAURE GUERECA DE PABON</t>
+          <t>RUTH LOURES CLAURE GUEVARA DE PABON CASA MARTÍNEZ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4C3735052DFDC7619C1E6581E868BA7A3704A600C2968B459DFA12F74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>174</v>
+          <t>C47339562D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>53</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>53</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>53</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
+          <t>21/12/2023</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>D1CD269A105E1A47A</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ERROR: entel-file-1759806895070.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>1020703023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>EMPRESA NACIONAL DE TELECOMUNICACIONES S. A.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>ATDOSBAE222F74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>47191854</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>05/10/2025 11:14 PM</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Respuesta no válida o error de procesamiento</t>
+          <t>45DE4A172191B9D9F0BFE0BDAE5A32BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1028677025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>63793</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HIPERMÁX S.A.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4611AB1B432B20D54A26805F0D39E15D2AF4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1028677025</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27/09/2025 18:07</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>298434202</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CAROLA SOLIZ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8437401C323298968974A3469D24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>18,770.40</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22,752.00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>3,981.60</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>18,770.40</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>18,770.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1021773026</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>INPROTEC S.R.L.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45E9DC96B864E9EAA4C9FC2252F5B6DB32774</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2500001618</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>25,192.00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>25,192.00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>25,192.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>182303012</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HASTEN NIT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41544822266218313030121829452</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>00000024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4.837,00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4.837,00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10289650209</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ITACAMBA CEMENTO S.A.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4662DCD06A106F2D6019FB84DCD4B165E9EF157B1B3A4D02F74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>26 DE AGOSTO DEL 2025</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>28,050.00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>28,050.00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>28,050.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24073910-1-2258</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COMPAÑÍA UNIVERSAL DE PERFUMERIA FRANCESCA (CUPFSA)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00005515596713-2-2015-202205200000001028189</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>02231413494</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>157362.28</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>157362.28</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1020397027</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ADMINISTRADORA DE TARJETAS DE CREDITO S.A. - A.T.C. S.A.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C58V7B701EC11EB5742931EF74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>477918</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>28/03/2023 07:59 AM</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>3.20</t>
         </is>
       </c>
     </row>

--- a/uploads/RCV_Compras_Procesado.xlsx
+++ b/uploads/RCV_Compras_Procesado.xlsx
@@ -522,9 +522,226 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4319556013</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>105542A1E3851A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000087</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>165</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>165</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>165</v>
+      </c>
+      <c r="U2" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4319556013</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IMPORTADORA ROTVIZ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10155CAE13851A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>975</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>975</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>975</v>
+      </c>
+      <c r="U3" t="n">
+        <v>126.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4319556013</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IMPORTADORA 'ROTVIZ'</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>106592AE13B81A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0000081</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>498.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>498.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>498.6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>64.81999999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/RCV_Compras_Procesado.xlsx
+++ b/uploads/RCV_Compras_Procesado.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:W1"/>
@@ -523,20 +523,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>4319556013</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IMPORTADORA 'ROTVIZ'</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>105542A1E3851A</t>
+          <t>1055CAE3BE81A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -546,67 +545,20 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>165</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>165</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>165</v>
-      </c>
-      <c r="U2" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>4319556013</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>IMPORTADORA ROTVIZ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,53 +579,8 @@
       <c r="I3" t="n">
         <v>975</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>975</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>4319556013</t>
@@ -681,65 +588,57 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IMPORTADORA 'ROTVIZ'</t>
+          <t>ROTOVIZ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>106592AE13B81A</t>
+          <t>106503AE33BA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0000081</t>
+          <t>000081</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>487.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3926512012</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>101208327423478</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000050</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>498.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>498.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>498.6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>64.81999999999999</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>385</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
